--- a/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipseUpdatedWorkspace\SDET-52\src\test\resources\bixidata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_TYSS\Com.SianKred\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00781B2C-1B3B-48E6-AC0E-EF224011FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E21EC3B-E071-4090-962D-15032A7DEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>neyaz</t>
   </si>
@@ -180,21 +180,12 @@
     <t>genderDD</t>
   </si>
   <si>
-    <t>stateDD</t>
-  </si>
-  <si>
-    <t>cityDD</t>
-  </si>
-  <si>
     <t>accountDD</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>San Diego</t>
-  </si>
-  <si>
     <t>Saving</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
   </si>
   <si>
     <t>08071990</t>
-  </si>
-  <si>
-    <t>newpassword</t>
   </si>
   <si>
     <t>Manju@1234</t>
@@ -223,7 +211,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,8 +597,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,17 +715,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C7B5E6-C531-45D2-9E1C-1477416FD268}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -752,72 +739,84 @@
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -825,40 +824,21 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{A053DAB1-8CC9-4E27-895D-CB5B2FCF0C83}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -873,8 +853,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,8 +947,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_TYSS\Com.SianKred\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E21EC3B-E071-4090-962D-15032A7DEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFF233-374B-4753-890B-A344DD438E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="NeyazTC_05" sheetId="1" r:id="rId1"/>
     <sheet name="NeyazUTC_05" sheetId="4" r:id="rId2"/>
-    <sheet name="ManjuTC_13" sheetId="2" r:id="rId3"/>
-    <sheet name="NeyazTC_15" sheetId="3" r:id="rId4"/>
+    <sheet name="ChangePassword" sheetId="5" r:id="rId3"/>
+    <sheet name="ManjuTC_13" sheetId="2" r:id="rId4"/>
+    <sheet name="NeyazTC_15" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>neyaz</t>
   </si>
@@ -205,6 +206,18 @@
   </si>
   <si>
     <t>Neyaz@1234</t>
+  </si>
+  <si>
+    <t>newpassword</t>
+  </si>
+  <si>
+    <t>stateDD</t>
+  </si>
+  <si>
+    <t>cityDD</t>
+  </si>
+  <si>
+    <t>San Diego</t>
   </si>
 </sst>
 </file>
@@ -266,13 +279,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -715,14 +729,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C7B5E6-C531-45D2-9E1C-1477416FD268}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -741,6 +756,147 @@
       <c r="F1" t="s">
         <v>48</v>
       </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9C4BBB89-2C4B-48F1-8D22-61A082977E38}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA7765-107F-4D5C-B624-3A424518000D}">
+  <dimension ref="H1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>53</v>
       </c>
@@ -748,94 +904,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>56</v>
       </c>
       <c r="I3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589B8850-2257-44BF-B280-9D8E8FD88328}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -937,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BED159-76F2-4610-BCC8-B3A6EC87C92A}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_TYSS\Com.SianKred\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFF233-374B-4753-890B-A344DD438E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE243DCF-21DE-44B7-9E44-0FC3AAC24444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>neyaz</t>
   </si>
@@ -224,6 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,8 +612,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,10 +738,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -882,18 +883,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA7765-107F-4D5C-B624-3A424518000D}">
-  <dimension ref="H1:I3"/>
+  <dimension ref="H1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:9" x14ac:dyDescent="0.3">
@@ -919,6 +920,9 @@
       <c r="I3" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -935,8 +939,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,8 +1033,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
+++ b/Com.SianKred/src/test/resources/bixidata/bixitestdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_TYSS\Com.SianKred\src\test\resources\bixidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE243DCF-21DE-44B7-9E44-0FC3AAC24444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B2B67-AEC7-41F3-B922-2E1D6D0BEEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{64AE2C79-9B9D-468B-AB83-0ECB194FA0FC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>neyaz</t>
   </si>
@@ -224,7 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,8 +611,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,10 +737,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -883,18 +882,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA7765-107F-4D5C-B624-3A424518000D}">
-  <dimension ref="H1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:9" x14ac:dyDescent="0.3">
@@ -909,7 +908,7 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -917,12 +916,12 @@
       <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I4" s="1"/>
+    <row r="9" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,8 +938,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,8 +1032,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
